--- a/results/mp/logistic/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -67,100 +64,94 @@
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -518,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +517,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -587,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,19 +596,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -629,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -637,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4497354497354497</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.423728813559322</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>34</v>
+        <v>282</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +728,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4147286821705427</v>
+        <v>0.2953020134228188</v>
       </c>
       <c r="C6">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +778,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3221476510067114</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8679245283018868</v>
+        <v>0.8511749347258486</v>
       </c>
       <c r="L7">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="M7">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,37 +828,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1547619047619048</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8620689655172413</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,37 +878,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.08579088471849866</v>
+        <v>0.02039494982194885</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>341</v>
+        <v>3026</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8481675392670157</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>324</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,137 +928,89 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01586787564766839</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="F10">
-        <v>0.72</v>
+        <v>0.49</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>3039</v>
+        <v>2088</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L10">
-        <v>68</v>
-      </c>
-      <c r="M10">
-        <v>68</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.01231060606060606</v>
-      </c>
-      <c r="C11">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>0.54</v>
-      </c>
-      <c r="F11">
-        <v>0.46</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2086</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.828125</v>
-      </c>
-      <c r="L11">
-        <v>106</v>
-      </c>
-      <c r="M11">
-        <v>106</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.009545020680878142</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>88</v>
-      </c>
-      <c r="E12">
-        <v>0.66</v>
-      </c>
-      <c r="F12">
-        <v>0.34</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>3113</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.81875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1105,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1131,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1157,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.723404255319149</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1183,47 +1126,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L17">
+        <v>109</v>
+      </c>
+      <c r="M17">
+        <v>109</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>33</v>
-      </c>
-      <c r="K17">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L17">
-        <v>26</v>
-      </c>
-      <c r="M17">
-        <v>26</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7209302325581395</v>
+        <v>0.74</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1235,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.72</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1261,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1287,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1313,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6323529411764706</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1339,21 +1282,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1365,73 +1308,73 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6245733788395904</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="M24">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.602510460251046</v>
+        <v>0.6156462585034014</v>
       </c>
       <c r="L25">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="M25">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1443,21 +1386,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5730337078651685</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1469,21 +1412,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L28">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1495,47 +1438,47 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>44</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>45</v>
-      </c>
-      <c r="K29">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L29">
-        <v>37</v>
-      </c>
-      <c r="M29">
-        <v>37</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5294117647058824</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1547,111 +1490,59 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3835616438356164</v>
+        <v>0.01447906830343091</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K32">
-        <v>0.3717948717948718</v>
+        <v>0.01323251417769376</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33">
-        <v>0.01829076001261432</v>
-      </c>
-      <c r="L33">
-        <v>58</v>
-      </c>
-      <c r="M33">
-        <v>88</v>
-      </c>
-      <c r="N33">
-        <v>0.66</v>
-      </c>
-      <c r="O33">
-        <v>0.34</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34">
-        <v>0.01464336324988191</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <v>57</v>
-      </c>
-      <c r="N34">
-        <v>0.54</v>
-      </c>
-      <c r="O34">
-        <v>0.46</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>2086</v>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
